--- a/sources/case/Formal.xlsx
+++ b/sources/case/Formal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>CaseID</t>
   </si>
@@ -149,6 +149,62 @@
   </si>
   <si>
     <t>Formal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.join_date}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.join_date}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +537,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,10 +599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -639,6 +695,44 @@
       </c>
       <c r="L2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -649,10 +743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,6 +862,53 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/case/Formal.xlsx
+++ b/sources/case/Formal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>CaseID</t>
   </si>
@@ -168,6 +168,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${addMem_2.organization_ID}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,36 +196,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>microfastup-${addMem_2.employee_no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${addMem_2.position}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${addMem_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>${addMem_1.organization}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal_3</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_3.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_3.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.join_date}</t>
+  </si>
+  <si>
+    <t>${addMem_3.join_date}</t>
+  </si>
+  <si>
+    <t>microfastup-${addMem_3.employee_no}</t>
+  </si>
+  <si>
+    <t>${addMem_3.position}</t>
+  </si>
+  <si>
+    <t>${addMem_3.name}</t>
   </si>
   <si>
     <t>${addMem_2.position_ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.join_date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_3.position_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_3.uuid}</t>
   </si>
 </sst>
 </file>
@@ -599,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,7 +705,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -708,31 +743,69 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -743,10 +816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,39 +946,86 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
         <v>38</v>
       </c>
     </row>

--- a/sources/case/Formal.xlsx
+++ b/sources/case/Formal.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -637,12 +637,12 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>

--- a/sources/case/Formal.xlsx
+++ b/sources/case/Formal.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -148,99 +148,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${addMem_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.join_date}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.organization}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formal_3</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_3.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_3.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.join_date}</t>
+  </si>
+  <si>
+    <t>${addMem_3.join_date}</t>
+  </si>
+  <si>
+    <t>microfastup-${addMem_3.employee_no}</t>
+  </si>
+  <si>
+    <t>${addMem_3.position}</t>
+  </si>
+  <si>
+    <t>${addMem_3.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_3.position_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_3.uuid}</t>
+  </si>
+  <si>
     <t>Formal</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formal_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.organization}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microfastup-${addMem_2.employee_no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.position_ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.join_date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.organization}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Formal_3</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_3.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_3.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_2.join_date}</t>
-  </si>
-  <si>
-    <t>${addMem_3.join_date}</t>
-  </si>
-  <si>
-    <t>microfastup-${addMem_3.employee_no}</t>
-  </si>
-  <si>
-    <t>${addMem_3.position}</t>
-  </si>
-  <si>
-    <t>${addMem_3.name}</t>
-  </si>
-  <si>
-    <t>${addMem_2.position_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_3.position_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_3.uuid}</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -637,7 +637,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,10 +702,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -734,78 +734,78 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
       </c>
       <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
       </c>
       <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +937,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -946,37 +946,37 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -993,37 +993,37 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>

--- a/sources/case/Formal.xlsx
+++ b/sources/case/Formal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>CaseID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>effective_date</t>
   </si>
   <si>
-    <t>${addMem_1.join_date}</t>
-  </si>
-  <si>
     <t>notify_content</t>
   </si>
   <si>
@@ -188,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${addMem_2.join_date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${addMem_2.position}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,12 +208,6 @@
     <t>${addMem_3.organization_ID}</t>
   </si>
   <si>
-    <t>${addMem_2.join_date}</t>
-  </si>
-  <si>
-    <t>${addMem_3.join_date}</t>
-  </si>
-  <si>
     <t>microfastup-${addMem_3.employee_no}</t>
   </si>
   <si>
@@ -240,6 +227,14 @@
   </si>
   <si>
     <t>Formal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T11:10:20+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T11:10:20+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +602,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -636,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,7 +642,7 @@
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
@@ -676,136 +671,136 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
         <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -818,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -834,7 +829,7 @@
     <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
@@ -849,16 +844,16 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -870,42 +865,42 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -917,116 +912,116 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
